--- a/Roadmap_Infografik.xlsx
+++ b/Roadmap_Infografik.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31C4B76A-7462-4323-9FDE-BCE3AABEAB83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51594CC-3597-43B3-B2C8-5CB226BE819C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrammdaten" sheetId="1" r:id="rId1"/>
@@ -862,8 +862,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="342583" y="145791"/>
-          <a:ext cx="10100343" cy="6553865"/>
+          <a:off x="347263" y="145791"/>
+          <a:ext cx="10116771" cy="6558454"/>
           <a:chOff x="349898" y="349898"/>
           <a:chExt cx="10114772" cy="6564085"/>
         </a:xfrm>
@@ -4310,7 +4310,7 @@
                         <a:latin typeface="Franklin Gothic Book" panose="020B0503020102020204" pitchFamily="34" charset="0"/>
                       </a:rPr>
                       <a:pPr algn="ctr" rtl="0"/>
-                      <a:t>1 Jän</a:t>
+                      <a:t>15 Jän</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" sz="1500">
                       <a:solidFill>
@@ -5559,8 +5559,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="84" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="7" spans="1:4" ht="63" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
-        <v>43466</v>
+        <v>43480</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -5698,7 +5698,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="97" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="107" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5868,7 +5870,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="str">
         <f>IFERROR(IF(LEN(Diagrammdaten!B7)=0,"",IF(Diagrammdaten!$D$2="Jahr",YEAR(Diagrammdaten!B7),IF(Diagrammdaten!$D$2="leer","",DAY(Diagrammdaten!B7)&amp;" "&amp;TEXT(Diagrammdaten!B7,"MMM")))),"")</f>
-        <v>1 Jän</v>
+        <v>15 Jän</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
